--- a/dssinhvien.xlsx
+++ b/dssinhvien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\BT20211\Thiet ke va xay dung phan mem\tuan2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyKTX_HoangNT183925\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>20183961</t>
   </si>
@@ -35,21 +35,12 @@
     <t>20183919</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -107,7 +98,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>4</t>
+    <t>Nguyen Van J</t>
+  </si>
+  <si>
+    <t>20183968</t>
   </si>
 </sst>
 </file>
@@ -426,17 +420,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
@@ -446,37 +441,31 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -484,92 +473,159 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
